--- a/va_facility_data_2025-02-20/Mattoon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mattoon%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mattoon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mattoon%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R049b39c5143143cdb3d7f4ec640a3e13"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R17d5082f6b8946fd933f0a9fa6cf34f8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd296ff998e904414b29706873764322b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R21cf1edc314e4830b5c30ac0bc69a0ab"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0f316d52a40d4f21966b47bb9ea47b0d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfaeeb495271747a99064dcebce080429"/>
   </x:sheets>
 </x:workbook>
 </file>
